--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H2">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I2">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J2">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N2">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O2">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P2">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q2">
-        <v>80.42662571149333</v>
+        <v>38.21654443280111</v>
       </c>
       <c r="R2">
-        <v>723.83963140344</v>
+        <v>343.94889989521</v>
       </c>
       <c r="S2">
-        <v>0.0754098069686671</v>
+        <v>0.08128149441715157</v>
       </c>
       <c r="T2">
-        <v>0.1002477728143545</v>
+        <v>0.09264318372033166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H3">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I3">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J3">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.063475</v>
       </c>
       <c r="O3">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P3">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q3">
-        <v>59.93380715620833</v>
+        <v>59.17610892202777</v>
       </c>
       <c r="R3">
-        <v>539.404264405875</v>
+        <v>532.58498029825</v>
       </c>
       <c r="S3">
-        <v>0.05619528096030912</v>
+        <v>0.1258596934485321</v>
       </c>
       <c r="T3">
-        <v>0.07470449780210413</v>
+        <v>0.1434526122673816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H4">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I4">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J4">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N4">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O4">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P4">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q4">
-        <v>29.57781240443166</v>
+        <v>32.23833193005778</v>
       </c>
       <c r="R4">
-        <v>266.200311639885</v>
+        <v>290.14498737052</v>
       </c>
       <c r="S4">
-        <v>0.02773281987453686</v>
+        <v>0.06856663352697605</v>
       </c>
       <c r="T4">
-        <v>0.03686726618248929</v>
+        <v>0.07815101423115424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H5">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I5">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J5">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N5">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O5">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P5">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q5">
-        <v>109.98869622749</v>
+        <v>61.97785826047666</v>
       </c>
       <c r="R5">
-        <v>659.93217736494</v>
+        <v>371.8671495628599</v>
       </c>
       <c r="S5">
-        <v>0.1031278668957648</v>
+        <v>0.1318186407210105</v>
       </c>
       <c r="T5">
-        <v>0.09139694501265792</v>
+        <v>0.1001630087114806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H6">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I6">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J6">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N6">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O6">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P6">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q6">
-        <v>18.80375941559</v>
+        <v>18.48225659899333</v>
       </c>
       <c r="R6">
-        <v>169.23383474031</v>
+        <v>166.34030939094</v>
       </c>
       <c r="S6">
-        <v>0.01763082630000554</v>
+        <v>0.03930929545995401</v>
       </c>
       <c r="T6">
-        <v>0.02343794713844951</v>
+        <v>0.04480402713221842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
         <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J7">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N7">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O7">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P7">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q7">
-        <v>83.93514421675199</v>
+        <v>40.39437277301101</v>
       </c>
       <c r="R7">
-        <v>755.4162979507679</v>
+        <v>363.549354957099</v>
       </c>
       <c r="S7">
-        <v>0.0786994725599682</v>
+        <v>0.08591344491669364</v>
       </c>
       <c r="T7">
-        <v>0.1046209659319151</v>
+        <v>0.09792259749329014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
         <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J8">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>28.063475</v>
       </c>
       <c r="O8">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P8">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q8">
-        <v>62.54835015907499</v>
+        <v>62.54835015907501</v>
       </c>
       <c r="R8">
-        <v>562.9351514316749</v>
+        <v>562.9351514316751</v>
       </c>
       <c r="S8">
-        <v>0.05864673508278735</v>
+        <v>0.1330320009229641</v>
       </c>
       <c r="T8">
-        <v>0.07796339509694962</v>
+        <v>0.151627479176722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
         <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J9">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N9">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O9">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P9">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q9">
-        <v>30.86811025353299</v>
+        <v>34.075482670932</v>
       </c>
       <c r="R9">
-        <v>277.8129922817969</v>
+        <v>306.6793440383881</v>
       </c>
       <c r="S9">
-        <v>0.028942632058898</v>
+        <v>0.07247400819687602</v>
       </c>
       <c r="T9">
-        <v>0.03847555801986616</v>
+        <v>0.08260456952074952</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
         <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J10">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N10">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O10">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P10">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q10">
-        <v>114.786825860178</v>
+        <v>65.509761476439</v>
       </c>
       <c r="R10">
-        <v>688.7209551610679</v>
+        <v>393.058568858634</v>
       </c>
       <c r="S10">
-        <v>0.1076267007857951</v>
+        <v>0.1393305279361132</v>
       </c>
       <c r="T10">
-        <v>0.09538403100643465</v>
+        <v>0.105870951233498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
         <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J11">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N11">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O11">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P11">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q11">
-        <v>19.624051666998</v>
+        <v>19.535496309954</v>
       </c>
       <c r="R11">
-        <v>176.616465002982</v>
+        <v>175.819466789586</v>
       </c>
       <c r="S11">
-        <v>0.01839995070115185</v>
+        <v>0.04154939589176841</v>
       </c>
       <c r="T11">
-        <v>0.02446040046821507</v>
+        <v>0.0473572532674503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H12">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I12">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J12">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N12">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O12">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P12">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q12">
-        <v>122.7771151012773</v>
+        <v>6.916133360422501</v>
       </c>
       <c r="R12">
-        <v>736.662690607664</v>
+        <v>41.496800162535</v>
       </c>
       <c r="S12">
-        <v>0.1151185750744986</v>
+        <v>0.01470969349706466</v>
       </c>
       <c r="T12">
-        <v>0.1020236953669752</v>
+        <v>0.0111772291826922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H13">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I13">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J13">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>28.063475</v>
       </c>
       <c r="O13">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P13">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q13">
-        <v>91.49333164954582</v>
+        <v>10.7092325360625</v>
       </c>
       <c r="R13">
-        <v>548.9599898972749</v>
+        <v>64.25539521637501</v>
       </c>
       <c r="S13">
-        <v>0.08578619850797149</v>
+        <v>0.02277710969191729</v>
       </c>
       <c r="T13">
-        <v>0.07602791276389735</v>
+        <v>0.0173072929899377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H14">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I14">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J14">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N14">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O14">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P14">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q14">
-        <v>45.15268974543017</v>
+        <v>5.834242898070001</v>
       </c>
       <c r="R14">
-        <v>270.916138472581</v>
+        <v>35.00545738842001</v>
       </c>
       <c r="S14">
-        <v>0.04233617396847248</v>
+        <v>0.01240865673717912</v>
       </c>
       <c r="T14">
-        <v>0.03752038203363346</v>
+        <v>0.00942877567289117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H15">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I15">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J15">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N15">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O15">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P15">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q15">
-        <v>167.905773704891</v>
+        <v>11.2162713684525</v>
       </c>
       <c r="R15">
-        <v>671.623094819564</v>
+        <v>44.86508547381</v>
       </c>
       <c r="S15">
-        <v>0.1574322169057642</v>
+        <v>0.02385551368254115</v>
       </c>
       <c r="T15">
-        <v>0.09301607221450811</v>
+        <v>0.01208448219327027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H16">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I16">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J16">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N16">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O16">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P16">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q16">
-        <v>28.705311377681</v>
+        <v>3.344775236415</v>
       </c>
       <c r="R16">
-        <v>172.231868266086</v>
+        <v>20.06865141849</v>
       </c>
       <c r="S16">
-        <v>0.02691474335540932</v>
+        <v>0.007113890953258169</v>
       </c>
       <c r="T16">
-        <v>0.02385315814754981</v>
+        <v>0.005405523206932509</v>
       </c>
     </row>
   </sheetData>
